--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccr7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H2">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.2419776666666666</v>
+        <v>2.116427666666667</v>
       </c>
       <c r="N2">
-        <v>0.7259329999999999</v>
+        <v>6.349283</v>
       </c>
       <c r="O2">
-        <v>0.2427919098015043</v>
+        <v>0.6347244265142036</v>
       </c>
       <c r="P2">
-        <v>0.2427919098015043</v>
+        <v>0.6347244265142037</v>
       </c>
       <c r="Q2">
-        <v>0.01216316873344444</v>
+        <v>0.1673699217835556</v>
       </c>
       <c r="R2">
-        <v>0.109468518601</v>
+        <v>1.506329296052</v>
       </c>
       <c r="S2">
-        <v>0.03141240735793442</v>
+        <v>0.08764516589330158</v>
       </c>
       <c r="T2">
-        <v>0.03141240735793441</v>
+        <v>0.08764516589330158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,60 +602,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H3">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.02521333333333333</v>
+        <v>1.217976333333333</v>
       </c>
       <c r="N3">
-        <v>0.07564</v>
+        <v>3.653929</v>
       </c>
       <c r="O3">
-        <v>0.02529817497948955</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="P3">
-        <v>0.02529817497948955</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="Q3">
-        <v>0.001267365008888889</v>
+        <v>0.09631919240844444</v>
       </c>
       <c r="R3">
-        <v>0.01140628508</v>
+        <v>0.8668727316760001</v>
       </c>
       <c r="S3">
-        <v>0.003273076843943118</v>
+        <v>0.05043864218484915</v>
       </c>
       <c r="T3">
-        <v>0.003273076843943118</v>
+        <v>0.05043864218484915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05026566666666667</v>
+        <v>0.07720866666666666</v>
       </c>
       <c r="H4">
-        <v>0.150797</v>
+        <v>0.231626</v>
       </c>
       <c r="I4">
-        <v>0.1293799590917827</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J4">
-        <v>0.1293799590917827</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7294553333333332</v>
+        <v>2.116427666666667</v>
       </c>
       <c r="N4">
-        <v>2.188366</v>
+        <v>6.349283</v>
       </c>
       <c r="O4">
-        <v>0.7319099152190062</v>
+        <v>0.6347244265142036</v>
       </c>
       <c r="P4">
-        <v>0.7319099152190062</v>
+        <v>0.6347244265142037</v>
       </c>
       <c r="Q4">
-        <v>0.03666655863355556</v>
+        <v>0.1634065582397778</v>
       </c>
       <c r="R4">
-        <v>0.329999027702</v>
+        <v>1.470659024158</v>
       </c>
       <c r="S4">
-        <v>0.09469447488990515</v>
+        <v>0.0855697054307037</v>
       </c>
       <c r="T4">
-        <v>0.09469447488990515</v>
+        <v>0.0855697054307037</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,134 +732,134 @@
         <v>0.231626</v>
       </c>
       <c r="I5">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J5">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2419776666666666</v>
+        <v>1.217976333333333</v>
       </c>
       <c r="N5">
-        <v>0.7259329999999999</v>
+        <v>3.653929</v>
       </c>
       <c r="O5">
-        <v>0.2427919098015043</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="P5">
-        <v>0.2427919098015043</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="Q5">
-        <v>0.01868277300644444</v>
+        <v>0.09403832872822221</v>
       </c>
       <c r="R5">
-        <v>0.168144957058</v>
+        <v>0.846344958554</v>
       </c>
       <c r="S5">
-        <v>0.04824983432487993</v>
+        <v>0.04924424193955535</v>
       </c>
       <c r="T5">
-        <v>0.04824983432487992</v>
+        <v>0.04924424193955534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.07720866666666666</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H6">
-        <v>0.231626</v>
+        <v>0.117518</v>
       </c>
       <c r="I6">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J6">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M6">
-        <v>0.02521333333333333</v>
+        <v>2.116427666666667</v>
       </c>
       <c r="N6">
-        <v>0.07564</v>
+        <v>6.349283</v>
       </c>
       <c r="O6">
-        <v>0.02529817497948955</v>
+        <v>0.6347244265142036</v>
       </c>
       <c r="P6">
-        <v>0.02529817497948955</v>
+        <v>0.6347244265142037</v>
       </c>
       <c r="Q6">
-        <v>0.001946687848888889</v>
+        <v>0.08290611551044444</v>
       </c>
       <c r="R6">
-        <v>0.01752019064</v>
+        <v>0.746155039594</v>
       </c>
       <c r="S6">
-        <v>0.005027485275271847</v>
+        <v>0.04341473169162977</v>
       </c>
       <c r="T6">
-        <v>0.005027485275271847</v>
+        <v>0.04341473169162977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07720866666666666</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H7">
-        <v>0.231626</v>
+        <v>0.117518</v>
       </c>
       <c r="I7">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J7">
-        <v>0.1987291683826154</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,214 +868,152 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.7294553333333332</v>
+        <v>1.217976333333333</v>
       </c>
       <c r="N7">
-        <v>2.188366</v>
+        <v>3.653929</v>
       </c>
       <c r="O7">
-        <v>0.7319099152190062</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="P7">
-        <v>0.7319099152190062</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="Q7">
-        <v>0.05632027367955554</v>
+        <v>0.04771138091355556</v>
       </c>
       <c r="R7">
-        <v>0.5068824631159999</v>
+        <v>0.429402428222</v>
       </c>
       <c r="S7">
-        <v>0.1454518487824636</v>
+        <v>0.02498460805027357</v>
       </c>
       <c r="T7">
-        <v>0.1454518487824636</v>
+        <v>0.02498460805027357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2610376666666667</v>
+        <v>0.3772426666666667</v>
       </c>
       <c r="H8">
-        <v>0.7831129999999999</v>
+        <v>1.131728</v>
       </c>
       <c r="I8">
-        <v>0.671890872525602</v>
+        <v>0.658702904809687</v>
       </c>
       <c r="J8">
-        <v>0.671890872525602</v>
+        <v>0.6587029048096869</v>
       </c>
       <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.2419776666666666</v>
+        <v>2.116427666666667</v>
       </c>
       <c r="N8">
-        <v>0.7259329999999999</v>
+        <v>6.349283</v>
       </c>
       <c r="O8">
-        <v>0.2427919098015043</v>
+        <v>0.6347244265142036</v>
       </c>
       <c r="P8">
-        <v>0.2427919098015043</v>
+        <v>0.6347244265142037</v>
       </c>
       <c r="Q8">
-        <v>0.0631652854921111</v>
+        <v>0.7984068167804445</v>
       </c>
       <c r="R8">
-        <v>0.5684875694289999</v>
+        <v>7.185661351024001</v>
       </c>
       <c r="S8">
-        <v>0.16312966811869</v>
+        <v>0.4180948234985686</v>
       </c>
       <c r="T8">
-        <v>0.16312966811869</v>
+        <v>0.4180948234985686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.131728</v>
+      </c>
+      <c r="I9">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J9">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.2610376666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.7831129999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="J9">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.02521333333333333</v>
+        <v>1.217976333333333</v>
       </c>
       <c r="N9">
-        <v>0.07564</v>
+        <v>3.653929</v>
       </c>
       <c r="O9">
-        <v>0.02529817497948955</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="P9">
-        <v>0.02529817497948955</v>
+        <v>0.3652755734857964</v>
       </c>
       <c r="Q9">
-        <v>0.006581629702222223</v>
+        <v>0.4594726399235556</v>
       </c>
       <c r="R9">
-        <v>0.05923466732</v>
+        <v>4.135253759312</v>
       </c>
       <c r="S9">
-        <v>0.01699761286027459</v>
+        <v>0.2406080813111183</v>
       </c>
       <c r="T9">
-        <v>0.01699761286027459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.2610376666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.7831129999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="J10">
-        <v>0.671890872525602</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.7294553333333332</v>
-      </c>
-      <c r="N10">
-        <v>2.188366</v>
-      </c>
-      <c r="O10">
-        <v>0.7319099152190062</v>
-      </c>
-      <c r="P10">
-        <v>0.7319099152190062</v>
-      </c>
-      <c r="Q10">
-        <v>0.1904153181508889</v>
-      </c>
-      <c r="R10">
-        <v>1.713737863358</v>
-      </c>
-      <c r="S10">
-        <v>0.4917635915466374</v>
-      </c>
-      <c r="T10">
-        <v>0.4917635915466374</v>
+        <v>0.2406080813111183</v>
       </c>
     </row>
   </sheetData>
